--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1503,15 +1503,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>36;113;89;105#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>106#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3082,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3095,11 +3095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5556,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="342">
   <si>
     <t>id|行号</t>
   </si>
@@ -1495,10 +1495,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#61#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cps_xycj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1512,6 +1508,17 @@
   </si>
   <si>
     <t>106#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">act_040_ydfl </t>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#117#61#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +1816,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,7 +2590,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3098,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3093,13 +3109,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -5159,6 +5175,23 @@
       </c>
       <c r="F117" s="6" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5498,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5556,7 +5589,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1511,14 +1511,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">act_040_ydfl </t>
-  </si>
-  <si>
     <t>元旦福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3;116#2#8#117#61#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3111,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5182,7 +5183,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5191,7 +5192,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5531,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5570,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -1519,7 +1519,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>act_040_ydfl</t>
+    <t>"act_040_ydfl",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3116,7 +3116,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1515,11 +1515,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#117#61#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_040_ydfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#61#117#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3112,11 +3112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5183,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5532,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5571,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1503,31 +1503,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_ydfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#61#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>117#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>106#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_040_ydfl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;116#2#8#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_bottom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>117#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3107,7 +3107,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3120,11 +3120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5191,7 +5191,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5540,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5579,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>322</v>
@@ -5712,10 +5712,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="343">
   <si>
     <t>id|行号</t>
   </si>
@@ -1520,10 +1520,6 @@
   </si>
   <si>
     <t>right_bottom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>117#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3107,7 +3103,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3120,11 +3116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5540,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5714,9 +5710,7 @@
       <c r="B9" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="344">
   <si>
     <t>id|行号</t>
   </si>
@@ -1503,15 +1503,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>106#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导（捕鱼，冲金鸡→斗地主）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>36;113;89;105#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>106#</t>
+    <t>right_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>117#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2574,7 +2590,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2665,7 +2681,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3057,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3098,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3093,13 +3109,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomRight" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5159,6 +5175,23 @@
       </c>
       <c r="F117" s="6" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>117</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5496,10 +5529,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5589,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5666,8 +5699,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
@@ -6708,6 +6748,76 @@
       <c r="E112" s="6" t="str">
         <f>'all_enter|所有按钮入口'!F112</f>
         <v>UI-精彩活动</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="6">
+        <f>'all_enter|所有按钮入口'!E113</f>
+        <v>112</v>
+      </c>
+      <c r="E113" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F113</f>
+        <v>UI-获取金币</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="6">
+        <f>'all_enter|所有按钮入口'!E114</f>
+        <v>113</v>
+      </c>
+      <c r="E114" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F114</f>
+        <v>新人七天乐（旧）</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="6">
+        <f>'all_enter|所有按钮入口'!E115</f>
+        <v>114</v>
+      </c>
+      <c r="E115" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F115</f>
+        <v>聚划算</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="6">
+        <f>'all_enter|所有按钮入口'!E116</f>
+        <v>115</v>
+      </c>
+      <c r="E116" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F116</f>
+        <v>免费话费(冲金鸡)</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="6">
+        <f>'all_enter|所有按钮入口'!E117</f>
+        <v>116</v>
+      </c>
+      <c r="E117" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F117</f>
+        <v>幸运抽奖</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="6">
+        <f>'all_enter|所有按钮入口'!E118</f>
+        <v>117</v>
+      </c>
+      <c r="E118" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F118</f>
+        <v>游戏互导（捕鱼，冲金鸡→斗地主）</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="6">
+        <f>'all_enter|所有按钮入口'!E119</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="6">
+        <f>'all_enter|所有按钮入口'!F119</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/game_enter_btn_config.xlsx
+++ b/config_12.29/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="344">
   <si>
     <t>id|行号</t>
   </si>
@@ -692,10 +692,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>存钱罐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1520,6 +1516,18 @@
   </si>
   <si>
     <t>3;116#2#8#61#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>117#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2146,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2154,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2511,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2577,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2591,7 +2599,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2599,10 +2607,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2610,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2620,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2631,10 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,10 +2650,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2653,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2664,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2721,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2731,10 +2739,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2742,10 +2750,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2753,10 +2761,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2764,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,10 +2783,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2895,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2906,10 +2914,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2944,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2982,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3058,10 +3066,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3096,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3107,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3135,13 +3143,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3155,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3173,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3191,13 +3199,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3499,7 +3507,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3679,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3689,7 +3697,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,7 +3928,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,7 +3936,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4218,7 +4226,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4227,7 +4235,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4235,7 +4243,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4244,7 +4252,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4252,7 +4260,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4261,7 +4269,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4269,7 +4277,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4278,7 +4286,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4286,7 +4294,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4295,7 +4303,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4303,7 +4311,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4312,7 +4320,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4320,7 +4328,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4329,7 +4337,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4337,7 +4345,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4346,7 +4354,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4354,7 +4362,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4363,7 +4371,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4371,7 +4379,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4380,7 +4388,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4388,7 +4396,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4397,7 +4405,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4405,7 +4413,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4414,7 +4422,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4422,7 +4430,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4431,7 +4439,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4439,7 +4447,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4448,7 +4456,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4456,7 +4464,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4465,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4473,7 +4481,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4482,7 +4490,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4490,7 +4498,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4499,7 +4507,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4507,7 +4515,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4516,7 +4524,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,7 +4532,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4533,7 +4541,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4541,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4550,7 +4558,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4558,7 +4566,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4567,7 +4575,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,7 +4583,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4584,7 +4592,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4592,7 +4600,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4601,7 +4609,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4609,7 +4617,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4618,7 +4626,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4626,7 +4634,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4635,7 +4643,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4643,7 +4651,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4652,7 +4660,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4660,19 +4668,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4680,7 +4688,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4689,7 +4697,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4705,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4706,7 +4714,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4722,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4723,7 +4731,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,7 +4739,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4740,7 +4748,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,7 +4756,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4757,7 +4765,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,7 +4773,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4774,7 +4782,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4782,7 +4790,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4791,7 +4799,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,7 +4807,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4808,7 +4816,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,7 +4824,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4825,7 +4833,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4833,7 +4841,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4843,7 +4851,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,7 +4859,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4860,7 +4868,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4876,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4877,7 +4885,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4893,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4894,7 +4902,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,7 +4910,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4911,7 +4919,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4919,7 +4927,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4928,7 +4936,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,7 +4944,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4945,7 +4953,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4953,7 +4961,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4962,7 +4970,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4970,19 +4978,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,7 +4998,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4999,7 +5007,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5007,7 +5015,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5016,7 +5024,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5024,7 +5032,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5033,7 +5041,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5041,7 +5049,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5050,7 +5058,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5058,7 +5066,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5067,7 +5075,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5083,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5084,7 +5092,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5100,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5101,7 +5109,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,7 +5117,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5118,7 +5126,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,7 +5134,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5135,7 +5143,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,19 +5151,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5163,19 +5171,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5183,7 +5191,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5192,7 +5200,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5318,7 +5326,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5337,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5379,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5428,7 +5436,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5436,10 +5444,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5504,10 +5512,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5515,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5533,7 +5541,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5571,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5590,7 +5598,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5610,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5629,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5666,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5685,10 +5693,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5700,8 +5708,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
